--- a/Assignment1/pond2010.xlsx
+++ b/Assignment1/pond2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\indra\Google Drive\8086 - Data to Decisions\8086_fall18\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C98DCE8-96B8-468C-BD42-FAE55A109D99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E41CD2-E80C-455E-A95D-F3DC41715041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
   <si>
     <t>chippo</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Note that these data are simulated, not real! S.E. Hampton; 27 June 2012</t>
+  </si>
+  <si>
+    <t>Null Value</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -550,6 +553,9 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
